--- a/Documents/VNPT-HG/DeTai/HTQL-MayTram/TaiLieu/BTS Du lieu mau.xlsx
+++ b/Documents/VNPT-HG/DeTai/HTQL-MayTram/TaiLieu/BTS Du lieu mau.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THANHNHA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqceduph-my.sharepoint.com/personal/tth_mqceduph_onmicrosoft_com/Documents/Desktop/TTTT - 2023/VNPT-HG/DeTai/HTQL-MayTram/TaiLieu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A268CF-C27C-4580-AFB2-6638F37EBB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -540,25 +540,25 @@
   <dimension ref="A3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -632,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -646,7 +646,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -660,7 +660,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -674,7 +674,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -688,7 +688,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -702,7 +702,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -716,7 +716,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -730,7 +730,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -744,7 +744,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
